--- a/reports/templates/daily.xlsx
+++ b/reports/templates/daily.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uicestone/Sites/kangazone-server/reports/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0191283A-58E6-2642-A2C0-6F9D490B5BA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEDCB6D-1BF4-3147-A99F-1DB523D6279F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="20640" windowHeight="17540" tabRatio="180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -154,10 +154,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{{creditAmount}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{{socksAmount}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -210,10 +206,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{{creditAmountM}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{{restaurantAmountM}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -255,6 +247,14 @@
   </si>
   <si>
     <t>{{bookingAmountM}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{creditAndCodeAmount}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{creditAndCodeAmountM}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -718,7 +718,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -769,10 +769,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20" customHeight="1">
@@ -783,7 +783,7 @@
         <v>30</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="20" customHeight="1">
@@ -794,7 +794,7 @@
         <v>31</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="20" customHeight="1">
@@ -805,7 +805,7 @@
         <v>32</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20" customHeight="1">
@@ -813,10 +813,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20" customHeight="1">
@@ -824,10 +824,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20" customHeight="1">
@@ -835,10 +835,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="20" customHeight="1">
@@ -846,10 +846,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20" customHeight="1">
@@ -857,7 +857,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="5"/>
     </row>
@@ -889,10 +889,10 @@
         <v>14</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20" customHeight="1">
@@ -900,10 +900,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1">
@@ -911,10 +911,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
@@ -922,10 +922,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
@@ -933,10 +933,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
@@ -963,10 +963,10 @@
         <v>21</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20" customHeight="1">

--- a/reports/templates/daily.xlsx
+++ b/reports/templates/daily.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uicestone/Sites/kangazone-server/reports/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEDCB6D-1BF4-3147-A99F-1DB523D6279F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F71FA4-C728-B747-8C1D-7F5D37CB423F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="20640" windowHeight="17540" tabRatio="180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t>今日营业额</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,30 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、白金卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、荣耀卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、至尊卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4、计次卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5、年卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6、其它卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>充值卡销售合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,26 +146,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{{depositAmount1000}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{depositAmount2000}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{depositAmount3000}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{codeDepositAmount}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{freePlayDepositAmount}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{{customerCount}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -218,26 +174,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{{depositAmount1000M}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{depositAmount2000M}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{depositAmount3000M}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{codeDepositAmountM}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{freePlayDepositAmountM}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{{customerCountM}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -255,6 +191,54 @@
   </si>
   <si>
     <t>{{creditAndCodeAmountM}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、10次畅玩卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、20次畅玩卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、10次亲子卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、8次情侣畅玩卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{depositAmount1}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{depositAmount2}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{depositAmount3}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{depositAmount1M}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{depositAmount2M}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{depositAmount3M}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{depositAmount4}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{depositAmount4M}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -715,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="192" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -737,14 +721,14 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="9" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
     </row>
     <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
@@ -758,10 +742,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20" customHeight="1">
@@ -769,10 +753,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20" customHeight="1">
@@ -780,10 +764,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="20" customHeight="1">
@@ -791,10 +775,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="20" customHeight="1">
@@ -802,10 +786,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20" customHeight="1">
@@ -813,10 +797,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20" customHeight="1">
@@ -824,10 +808,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20" customHeight="1">
@@ -835,10 +819,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="20" customHeight="1">
@@ -846,10 +830,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20" customHeight="1">
@@ -857,13 +841,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" ht="20" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -878,123 +862,105 @@
         <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A23" s="1"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
     <row r="24" spans="1:3" ht="20" customHeight="1">
-      <c r="A24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
+      <c r="A24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
     </row>
     <row r="26" spans="1:3" ht="20" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="20" customHeight="1">
-      <c r="A27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" spans="1:3" ht="20.5" customHeight="1">
+      <c r="A27" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-    </row>
-    <row r="28" spans="1:3" ht="20" customHeight="1">
-      <c r="A28" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-    </row>
-    <row r="29" spans="1:3" ht="20.5" customHeight="1">
-      <c r="A29" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A27:C27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/reports/templates/daily.xlsx
+++ b/reports/templates/daily.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uicestone/Sites/kangazone-server/reports/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F71FA4-C728-B747-8C1D-7F5D37CB423F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A597C6E2-59E3-764B-8968-74DF767E7BB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="20640" windowHeight="17540" tabRatio="180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>今日营业额</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -194,18 +194,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、10次畅玩卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、20次畅玩卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、10次亲子卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4、8次情侣畅玩卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -239,6 +227,30 @@
   </si>
   <si>
     <t>{{depositAmount4M}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、5次2小时卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、10次全天畅玩卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、5次亲子2小时卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、10次亲子全天畅玩卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{depositAmount5}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{depositAmount5M}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -699,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="192" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="192" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -870,97 +882,108 @@
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="20" customHeight="1">
+      <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:3" ht="20" customHeight="1">
-      <c r="A23" s="1"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
     <row r="24" spans="1:3" ht="20" customHeight="1">
-      <c r="A24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="A24" s="1"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="26" spans="1:3" ht="20" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="1:3" ht="20.5" customHeight="1">
-      <c r="A27" s="10" t="s">
+    <row r="27" spans="1:3" ht="20" customHeight="1">
+      <c r="A27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+    </row>
+    <row r="28" spans="1:3" ht="20.5" customHeight="1">
+      <c r="A28" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/reports/templates/daily.xlsx
+++ b/reports/templates/daily.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uicestone/Sites/kangazone-server/reports/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A597C6E2-59E3-764B-8968-74DF767E7BB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40087D38-774E-264C-BC0A-7330A2558D75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="20640" windowHeight="17540" tabRatio="180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t>今日营业额</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -194,10 +194,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4、8次情侣畅玩卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{{depositAmount1}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -243,14 +239,6 @@
   </si>
   <si>
     <t>4、10次亲子全天畅玩卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{depositAmount5}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{depositAmount5M}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -711,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="192" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScale="192" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -882,108 +870,97 @@
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>57</v>
-      </c>
+      <c r="A22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
-      <c r="A23" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="A23" s="1"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
     <row r="24" spans="1:3" ht="20" customHeight="1">
-      <c r="A24" s="1"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
+      <c r="A24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>38</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
     </row>
     <row r="26" spans="1:3" ht="20" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="1:3" ht="20" customHeight="1">
-      <c r="A27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-    </row>
-    <row r="28" spans="1:3" ht="20.5" customHeight="1">
-      <c r="A28" s="10" t="s">
+    <row r="27" spans="1:3" ht="20.5" customHeight="1">
+      <c r="A27" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A27:C27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
